--- a/excel/机型库-根据算法部修改.xlsx
+++ b/excel/机型库-根据算法部修改.xlsx
@@ -13442,7 +13442,7 @@
         <v>FUTABA FASST:2426000</v>
       </c>
       <c r="M197" t="str">
-        <v>753341352/612900486</v>
+        <v>753341352/612900486/1434927124</v>
       </c>
       <c r="N197" t="str"/>
       <c r="O197" t="str">
@@ -13689,7 +13689,7 @@
         <v>Xiaomi(小米)</v>
       </c>
       <c r="D201" t="str">
-        <v>Xiaomi 4k</v>
+        <v>4k</v>
       </c>
       <c r="E201" t="str">
         <v>ieee_80211</v>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="K201" t="str"/>
       <c r="L201" t="str">
-        <v>XiaoMi XM_4K:5765000</v>
+        <v>XIAOMI 4k:5765000</v>
       </c>
       <c r="M201" t="str">
         <v>b0412d552947</v>
@@ -13787,7 +13787,7 @@
       </c>
       <c r="K202" t="str"/>
       <c r="L202" t="str">
-        <v>FIMI X8_SE:5825000</v>
+        <v>FIMI X8SE:5825000</v>
       </c>
       <c r="M202" t="str">
         <v>6cdffbe60219</v>
@@ -14059,7 +14059,7 @@
       </c>
       <c r="K206" t="str"/>
       <c r="L206" t="str">
-        <v>FIMI X8_SE:5815000</v>
+        <v>FIMI X8SE:5815000</v>
       </c>
       <c r="M206" t="str">
         <v>6cdffbe2d482</v>
@@ -15294,14 +15294,14 @@
         <v>Hubsan h107s:2449950</v>
       </c>
       <c r="M223" t="str">
-        <v>588299408/598167864</v>
+        <v>588299408/598167864/1617420960</v>
       </c>
       <c r="N223" t="str"/>
       <c r="O223" t="str">
         <v>https://file.lizhengtech.com:4443/lib/8225dafa-fb1e-4608-ba0b-f6ee099ca836/file/%E4%BF%A1%E5%8F%B7%E7%94%9F%E6%88%90%EF%BC%88%E4%BF%A1%E5%8F%B7%E6%BA%90%EF%BC%89/hubsan_h107s_1M_138.dat</v>
       </c>
       <c r="P223" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q223" t="str"/>
       <c r="R223" t="str">
@@ -15526,7 +15526,7 @@
         <v>AUTEL EVO:2400000</v>
       </c>
       <c r="M226" t="str">
-        <v>60601f095da5/60601f0970fb/60601f09dd07</v>
+        <v>60601f095da5/60601f0970fb/60601f09dd07/60601f093588</v>
       </c>
       <c r="N226" t="str"/>
       <c r="O226" t="str"/>
@@ -15592,12 +15592,12 @@
         <v>AUTEL EVO:2425000</v>
       </c>
       <c r="M227" t="str">
-        <v>60601f0972bf/60601f096d1d</v>
+        <v>60601f0972bf/60601f096d1d/60601f098bb9</v>
       </c>
       <c r="N227" t="str"/>
       <c r="O227" t="str"/>
       <c r="P227" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q227" t="str"/>
       <c r="R227" t="str">
@@ -16415,7 +16415,7 @@
         <v>https://file.lizhengtech.com:4443/library/8225dafa-fb1e-4608-ba0b-f6ee099ca836/SignalDB/wb_wifi_Walkera/Walkera_Vitus_5805MHz</v>
       </c>
       <c r="P238" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q238" t="str"/>
       <c r="R238" t="str">
@@ -17472,14 +17472,14 @@
         <v>SYMA X20:2473030</v>
       </c>
       <c r="M254" t="str">
-        <v>700869150/744743670</v>
+        <v>700869150/744743670/739302490</v>
       </c>
       <c r="N254" t="str"/>
       <c r="O254" t="str">
         <v>https://file.lizhengtech.com:4443/library/8225dafa-fb1e-4608-ba0b-f6ee099ca836/SignalDB/wb%26nb_Syma/nb_rc_x20_2460</v>
       </c>
       <c r="P254" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q254" t="str"/>
       <c r="R254" t="str">
@@ -17550,7 +17550,7 @@
         <v>SYMA X26a:2467000</v>
       </c>
       <c r="M255" t="str">
-        <v>553496138/794106257</v>
+        <v>553496138/794106257/897561075</v>
       </c>
       <c r="N255" t="str"/>
       <c r="O255" t="str">
@@ -17628,14 +17628,14 @@
         <v>SYMA s39:2425970</v>
       </c>
       <c r="M256" t="str">
-        <v>547604225/784874343</v>
+        <v>547604225/784874343/1082309214</v>
       </c>
       <c r="N256" t="str"/>
       <c r="O256" t="str">
         <v>https://file.lizhengtech.com:4443/library/8225dafa-fb1e-4608-ba0b-f6ee099ca836/SignalDB/wb%26nb_Syma/nb_rc_s39-1_2450</v>
       </c>
       <c r="P256" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q256" t="str"/>
       <c r="R256" t="str">
@@ -24382,7 +24382,7 @@
         <v>JJRC i12:2475980</v>
       </c>
       <c r="M370" t="str">
-        <v>683102690/686825770</v>
+        <v>683102690/686825770/1230334095</v>
       </c>
       <c r="N370" t="str"/>
       <c r="O370" t="str">
@@ -24735,7 +24735,7 @@
         <v>https://file.lizhengtech.com:4443/library/8225dafa-fb1e-4608-ba0b-f6ee099ca836/SignalDB/nb_RC/WFLY_ET12_2450</v>
       </c>
       <c r="P375" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q375" t="str"/>
       <c r="R375" t="str">
@@ -26161,7 +26161,7 @@
         <v>https://file.lizhengtech.com:4443/library/8225dafa-fb1e-4608-ba0b-f6ee099ca836/SignalDB/nb_RC/XK_Detect_X380</v>
       </c>
       <c r="P398" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q398" t="str"/>
       <c r="R398" t="str">
@@ -31427,7 +31427,7 @@
         <v>无</v>
       </c>
       <c r="P480" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q480" t="str"/>
       <c r="R480" t="str">
